--- a/results/compareAdiacPytorchIndexBack.xlsx
+++ b/results/compareAdiacPytorchIndexBack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adzie\code\time-series-machine-leaning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B29C18-ED0C-445C-950F-466E2A9F1DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04D7C5-9D08-4F92-81D7-D5A165F7CD3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8412" tabRatio="818" xr2:uid="{7525642E-E863-4003-937D-538329B24413}"/>
   </bookViews>
@@ -19941,7 +19941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8BC596-52DE-499E-A1AF-2E881A5A808D}">
   <dimension ref="A2:H302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I28" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
